--- a/Productiedossier/timesheet_Basiel_Smitz.xlsx
+++ b/Productiedossier/timesheet_Basiel_Smitz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -59,9 +59,6 @@
     <t>SOM:</t>
   </si>
   <si>
-    <t>Productiedossier aanvullen, alles samenbrengen en afwerken</t>
-  </si>
-  <si>
     <t>WOT Timesheet: Basiel Smitz</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>Uitwerken livestream webRTC dmv simple peer en firebase + experimenteren motor</t>
+  </si>
+  <si>
+    <t>constructie rad uitwerken + alles proberen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productiedossier aanvullen, alles samenbrengen en afwerken + </t>
+  </si>
+  <si>
+    <t>inplementeren van livestream in vue project WIP</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -545,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -574,13 +580,13 @@
         <v>43025</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -591,13 +597,13 @@
         <v>43026</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>1.5</v>
@@ -608,13 +614,13 @@
         <v>43032</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -625,13 +631,13 @@
         <v>43033</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1.5</v>
@@ -642,7 +648,7 @@
         <v>43046</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -659,7 +665,7 @@
         <v>43047</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -676,13 +682,13 @@
         <v>43063</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -693,13 +699,13 @@
         <v>43064</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
@@ -710,13 +716,13 @@
         <v>43065</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -727,13 +733,13 @@
         <v>43067</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -744,13 +750,13 @@
         <v>43068</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>3.75</v>
@@ -761,13 +767,13 @@
         <v>43072</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
@@ -778,13 +784,13 @@
         <v>43074</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -795,13 +801,13 @@
         <v>43076</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>3.5</v>
@@ -812,13 +818,13 @@
         <v>43077</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>1.5</v>
@@ -829,13 +835,13 @@
         <v>43081</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
@@ -846,13 +852,13 @@
         <v>43088</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2">
         <v>8.5</v>
@@ -863,13 +869,13 @@
         <v>43090</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2">
         <v>7.5</v>
@@ -880,13 +886,13 @@
         <v>43091</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2">
         <v>8.5</v>
@@ -897,13 +903,13 @@
         <v>43093</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2">
         <v>9.25</v>
@@ -914,13 +920,13 @@
         <v>43094</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2">
         <v>9</v>
@@ -931,13 +937,13 @@
         <v>43097</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
         <v>9</v>
@@ -948,7 +954,7 @@
         <v>43099</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -965,36 +971,64 @@
         <v>43103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="E27" s="7" t="s">
-        <v>10</v>
+      <c r="A27" s="3">
+        <v>43104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
-      <c r="E28" s="7">
-        <f>SUM(E3:E26)</f>
-        <v>126.5</v>
+      <c r="A28" s="3">
+        <v>43105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
+      <c r="E30" s="7">
+        <f>SUM(E3:E28)</f>
+        <v>135.5</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
@@ -1013,17 +1047,9 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
@@ -1178,6 +1204,20 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Productiedossier/timesheet_Basiel_Smitz.xlsx
+++ b/Productiedossier/timesheet_Basiel_Smitz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>inplementeren van livestream in vue project WIP</t>
+  </si>
+  <si>
+    <t>Uitwerken livestream + bugfixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructie rad + livestream </t>
+  </si>
+  <si>
+    <t>livestream + colorpicking &amp; calibratie + bugfixes</t>
   </si>
 </sst>
 </file>
@@ -536,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1018,29 +1027,85 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
-      <c r="E29" s="7" t="s">
+      <c r="A29" s="3">
+        <v>43108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>43109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="E30" s="7">
-        <f>SUM(E3:E28)</f>
-        <v>135.5</v>
-      </c>
-    </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>43110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>43111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
+      <c r="E34" s="7">
+        <f>SUM(E3:E32)</f>
+        <v>168.5</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
